--- a/Daisy-xls/ResearchPages/English/research-uterine-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/English/research-uterine-cancer.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -561,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <v>6151</v>
+        <v>564059</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
